--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10038,7 +10038,7 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>8</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10159,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -10325,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
@@ -10337,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U5" t="n">
         <v>5</v>
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -10799,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" t="n">
         <v>19</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10159,7 +10159,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
@@ -10633,7 +10633,7 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -10645,7 +10645,7 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U7" t="n">
         <v>5</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -10950,7 +10950,7 @@
         <v>6</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>9</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10325,10 +10325,10 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R5" t="n">
         <v>6</v>
@@ -11249,10 +11249,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -11249,13 +11249,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -10183,7 +10183,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U4" t="n">
         <v>9</v>
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -10799,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U8" t="n">
         <v>19</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
@@ -10491,7 +10491,7 @@
         <v>16</v>
       </c>
       <c r="T6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U6" t="n">
         <v>8</v>
@@ -10633,7 +10633,7 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -10645,7 +10645,7 @@
         <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" t="n">
         <v>5</v>
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10325,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="n">
         <v>6</v>
@@ -10337,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
         <v>5</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10941,13 +10941,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
@@ -10488,7 +10488,7 @@
         <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T6" t="n">
         <v>13</v>
@@ -10941,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
@@ -10953,7 +10953,7 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -11249,10 +11249,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
         <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>1</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10615,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" t="n">
         <v>3</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10787,7 +10787,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q8" t="n">
         <v>1</v>
@@ -10799,7 +10799,7 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U8" t="n">
         <v>19</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10633,7 +10633,7 @@
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -10651,7 +10651,7 @@
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10017,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="n">
         <v>2</v>
@@ -10029,7 +10029,7 @@
         <v>13</v>
       </c>
       <c r="T3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -11004,10 +11004,10 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10388,7 +10388,7 @@
         <v>1</v>
       </c>
       <c r="AK5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL5" t="n">
         <v>1</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -11312,10 +11312,10 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10926,7 +10926,7 @@
         <v>10</v>
       </c>
       <c r="K9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" t="n">
         <v>6</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>

--- a/AIESEC_Data2.xlsx
+++ b/AIESEC_Data2.xlsx
@@ -11354,10 +11354,10 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" t="n">
         <v>0</v>
